--- a/CoreRulebook/Data/Archetypes/Investigator.xlsx
+++ b/CoreRulebook/Data/Archetypes/Investigator.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA00DCD4-096B-4F7F-96F4-C4906BA29A95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFD9374-E818-44B2-A759-76101624CABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>LVL</t>
   </si>
@@ -84,15 +84,9 @@
     <t>Gut Instinct</t>
   </si>
   <si>
-    <t>Combat De-Escalation I</t>
-  </si>
-  <si>
     <t>Police Cordon</t>
   </si>
   <si>
-    <t>Combat De-Escalation II</t>
-  </si>
-  <si>
     <t>Bent Copper</t>
   </si>
   <si>
@@ -115,6 +109,15 @@
   </si>
   <si>
     <t>Interrogator's Demeanor IV</t>
+  </si>
+  <si>
+    <t>Police Tactics I</t>
+  </si>
+  <si>
+    <t>Police Tactics II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seasoned </t>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -530,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -551,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -563,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -575,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -589,6 +592,9 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -598,7 +604,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
@@ -614,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -626,7 +632,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -638,10 +644,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -674,10 +680,10 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -701,7 +707,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1"/>
     </row>

--- a/CoreRulebook/Data/Archetypes/Investigator.xlsx
+++ b/CoreRulebook/Data/Archetypes/Investigator.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">LVL</t>
   </si>
@@ -55,52 +55,68 @@
     <t xml:space="preserve">Always Alert</t>
   </si>
   <si>
-    <t xml:space="preserve">Eavesdrop I</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Eavesdrop I\comma{} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Hurtful Words</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Police Tactics I</t>
   </si>
   <si>
+    <t xml:space="preserve">Interrogator's Demeanor II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Influence Morale (d4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gut Instinct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good cop/Bad cop</t>
+  </si>
+  <si>
     <t xml:space="preserve">Silver Tongued</t>
   </si>
   <si>
-    <t xml:space="preserve">Interrogator's Demeanor II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gut Instinct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Press Pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Good cop/Bad cop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eavesdrop II</t>
-  </si>
-  <si>
     <t xml:space="preserve">Evaluate Perp</t>
   </si>
   <si>
-    <t xml:space="preserve">Hurtful Words</t>
+    <t xml:space="preserve">Influence Morale (d6)</t>
   </si>
   <si>
     <t xml:space="preserve">Research Team</t>
   </si>
   <si>
+    <t xml:space="preserve">Contact Curation I</t>
+  </si>
+  <si>
     <t xml:space="preserve">Interrogator's Demeanor III</t>
   </si>
   <si>
     <t xml:space="preserve">Police Tactics II</t>
   </si>
   <si>
-    <t xml:space="preserve">Contact Curation I</t>
-  </si>
-  <si>
     <t xml:space="preserve">Undercover</t>
   </si>
   <si>
-    <t xml:space="preserve">Influence Opinion </t>
+    <t xml:space="preserve">Taser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Influence Morale (d8)</t>
   </si>
   <si>
     <t xml:space="preserve">Evaluate Perp II</t>
@@ -112,10 +128,22 @@
     <t xml:space="preserve">Bent Copper / Honest Bobby</t>
   </si>
   <si>
-    <t xml:space="preserve">Eavesdrop III</t>
+    <t xml:space="preserve">Influence Morale (d10)</t>
   </si>
   <si>
     <t xml:space="preserve">Illusive Deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate Truth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restraining Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Influence Morale (d12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Police Tactics III</t>
   </si>
   <si>
     <t xml:space="preserve">Contact Curation II</t>
@@ -134,7 +162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -155,6 +183,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -199,8 +232,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -228,7 +265,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -322,11 +359,8 @@
       <c r="D6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -335,6 +369,9 @@
         <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>14</v>
       </c>
     </row>
@@ -349,11 +386,9 @@
       <c r="D8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
@@ -362,10 +397,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -377,10 +412,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -392,10 +427,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
@@ -408,9 +446,6 @@
       </c>
       <c r="D12" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -422,6 +457,9 @@
         <v>2</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="0" t="s">
@@ -467,7 +505,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
@@ -478,15 +516,21 @@
       <c r="C17" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="2"/>
+      <c r="E17" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(A18/5)</f>
         <v>3</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -498,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -509,6 +553,12 @@
         <f aca="false">_xlfn.FLOOR.MATH(A20/5)</f>
         <v>3</v>
       </c>
+      <c r="D20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -519,10 +569,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
